--- a/Estandarizacion .xlsx
+++ b/Estandarizacion .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B9302-E845-46C8-BFD4-F51EF962E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D81F7C-8456-4C02-8EBE-6BF5A3D908E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,20 +154,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="J8" sqref="J8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,383 +461,356 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="D21:K22"/>
-    <mergeCell ref="D23:K24"/>
-    <mergeCell ref="D25:K26"/>
-    <mergeCell ref="D27:K28"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:I13"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:I7"/>
+    <mergeCell ref="J6:K7"/>
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="B19:C20"/>
@@ -849,13 +821,16 @@
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="D10:I11"/>
     <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:I7"/>
-    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:I13"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="D21:K22"/>
+    <mergeCell ref="D23:K24"/>
+    <mergeCell ref="D25:K26"/>
+    <mergeCell ref="D27:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
